--- a/biology/Botanique/Banksia_archaeocarpa/Banksia_archaeocarpa.xlsx
+++ b/biology/Botanique/Banksia_archaeocarpa/Banksia_archaeocarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Banksia archaeocarpa est une espèce fossile d'arbuste buissonnant disparue, qui appartenait au genre Banksia de la famille des Proteaceae. On ne le connaît que par un cône fossile retrouvé dans le parc naturel de Kennedy Range en Australie-Occidentale et datant du milieu de l'Eocène. 
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrit en 1983 par Kenneth J. McNamara &amp; John K. Scott, il ressemble fortement à Banksia attenuata[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit en 1983 par Kenneth J. McNamara &amp; John K. Scott, il ressemble fortement à Banksia attenuata.
 </t>
         </is>
       </c>
